--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDD72B5B-B060-43F9-8693-B74665242D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3F9AA-D12F-4B05-A75D-E285D5819223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
+    <sheet name="Nao_encontrados" sheetId="2" r:id="rId2"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -37,15 +39,6 @@
     <t>PROCESSADO</t>
   </si>
   <si>
-    <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
-  </si>
-  <si>
-    <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>DENER MOREIRA BARBOSA - AV. JUIZ MARCO TULIO ISAAC, 9285 - NOVA BADEN  - BETIM</t>
   </si>
   <si>
@@ -71,6 +64,9 @@
   </si>
   <si>
     <t>RUA ARTUR RABELO,  235, BAIRRO PARQUE DAS INDUSTRIAS  - BETIM</t>
+  </si>
+  <si>
+    <t>MARIA RAIMUNDA GONÇALVES - RUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOSRUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOS</t>
   </si>
 </sst>
 </file>
@@ -931,11 +927,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -970,58 +974,112 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110DAA3-5549-4E82-9C8A-4369887BB209}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="D4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA3F9AA-D12F-4B05-A75D-E285D5819223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85257B8-1DA4-4815-8FF6-1174055A196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>MARIA RAIMUNDA GONÇALVES - RUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOSRUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>WALISSON AFONSO CARNEIRO - RUA DE NINGUEM, 235 - DIOGO DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>RUA DE NINGUEM, 235 - DIOGO DE VASCONCELOS</t>
+  </si>
+  <si>
+    <t>RUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOS</t>
   </si>
 </sst>
 </file>
@@ -927,10 +936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,6 +985,9 @@
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3">
         <v>1</v>
       </c>
@@ -994,6 +1006,20 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1021,7 +1047,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85257B8-1DA4-4815-8FF6-1174055A196A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD07ED3-D72E-4746-95BD-6D0D44763ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
-    <sheet name="Nao_encontrados" sheetId="2" r:id="rId2"/>
-    <sheet name="Planilha1" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -939,18 +938,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -967,7 +966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -981,7 +980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -995,7 +994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1009,7 +1008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1029,20 +1028,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5110DAA3-5549-4E82-9C8A-4369887BB209}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1050,9 +1035,9 @@
       <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1066,7 +1051,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1080,7 +1065,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1094,7 +1079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD07ED3-D72E-4746-95BD-6D0D44763ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64873DD9-E15D-4C14-AD75-24E1915C0DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
+    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -65,16 +65,628 @@
     <t>RUA ARTUR RABELO,  235, BAIRRO PARQUE DAS INDUSTRIAS  - BETIM</t>
   </si>
   <si>
-    <t>MARIA RAIMUNDA GONÇALVES - RUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOSRUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOS</t>
-  </si>
-  <si>
-    <t>WALISSON AFONSO CARNEIRO - RUA DE NINGUEM, 235 - DIOGO DE VASCONCELOS</t>
-  </si>
-  <si>
-    <t>RUA DE NINGUEM, 235 - DIOGO DE VASCONCELOS</t>
-  </si>
-  <si>
-    <t>RUA MALVINA CRUELA, 45 - MIGUEL RODRIGUES - DIOGO DE VASCONCELOS</t>
+    <t>WASHINGTON DA SILVA GONÇALVES - RUA NILO COELHO JACOME, 394 - BELA VISTA  - CAETÉ</t>
+  </si>
+  <si>
+    <t>RUA NILO COELHO JACOME, 394 - BELA VISTA - CAETÉ</t>
+  </si>
+  <si>
+    <t>CLÁUDIO MANOEL DA SILVA BORBA</t>
+  </si>
+  <si>
+    <t>AVENIDA RIO NEGRO, 683 - D. BOSCO</t>
+  </si>
+  <si>
+    <t>ANDERSON DE ARAUJO MELO - R. FERREIRA, 350 - EYMARD - BH</t>
+  </si>
+  <si>
+    <t>R. FERREIRA, 350 - EYMARD - BH</t>
+  </si>
+  <si>
+    <t>ANDERSON LUIZ  - BECO SÃO PEDRO, 25 - CABANA - BH</t>
+  </si>
+  <si>
+    <t>BECO SÃO PEDRO, 25 - CABANA - BH</t>
+  </si>
+  <si>
+    <t>DIEGO VINICIUS DA ROCHA CARNEIRO - RUA IGUAÇÚ Nº 385 - BAIRRO CONCÓRDIA - BH</t>
+  </si>
+  <si>
+    <t>RUA IGUAÇÚ  385 - BAIRRO CONCÓRDIA - BH</t>
+  </si>
+  <si>
+    <t>FRANCISCO PAULO XAVIER - RUA JOSÉ CECILIO DOS SANTOS, 65 BAIRRO EYMARD (MARIA GORETI) - BH</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ CECILIO DOS SANTOS, 65 BAIRRO EYMARD (MARIA GORETI) - BH</t>
+  </si>
+  <si>
+    <t>JACKSON ANTONIO DA SILVA - RUA ARISCO , 120, JARDIM VITORIA - BH</t>
+  </si>
+  <si>
+    <t>RUA ARISCO , 120, JARDIM VITORIA - BH</t>
+  </si>
+  <si>
+    <t>JOAQUIM DOS SANTOS GOMES - RUA  BARRETOS, 434, BAIRRO JULIANA - BH</t>
+  </si>
+  <si>
+    <t>RUA  BARRETOS, 434, BAIRRO JULIANA - BH</t>
+  </si>
+  <si>
+    <t>JOSE AUGUSTO GUERHARDT - RUA ROSA DE PEDRA Nº 130 - BAIRRO ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>RUA ROSA DE PEDRA  130 - BAIRRO ETELVINA CARNEIRO - BH</t>
+  </si>
+  <si>
+    <t>LEANDRO VITOR  - R. MARILENE FERREIRA DOS SANTOS, 87 - JARDIM DOS COMERCIARIOS - BH</t>
+  </si>
+  <si>
+    <t>R. MARILENE FERREIRA DOS SANTOS, 87 - JARDIM DOS COMERCIARIOS - BH</t>
+  </si>
+  <si>
+    <t>LEONARDO DE LIMA - RUA IGUAÇU, 385, CONCORDIA - BH</t>
+  </si>
+  <si>
+    <t>RUA IGUAÇU, 385, CONCORDIA - BH</t>
+  </si>
+  <si>
+    <t>LUCAS FERREIRA DA SILVA - RUA OTILIA CANDIDA NASCIMENTO, N°204 - BAIRRO SANTA MONICA - BH</t>
+  </si>
+  <si>
+    <t>RUA OTILIA CANDIDA NASCIMENTO, N°204 - BAIRRO SANTA MONICA - BH</t>
+  </si>
+  <si>
+    <t>LUCINEI GOMES DA LUZ - R. IMPÉRIO, 674 - EYMARD - BH</t>
+  </si>
+  <si>
+    <t>R. IMPÉRIO, 674 - EYMARD - BH</t>
+  </si>
+  <si>
+    <t>PAULO DE OLIVEIRA MAIA - RUA JOAO RODRIGUES GONÇALVES, Nº 93 – VALE JATOBÁ - BH</t>
+  </si>
+  <si>
+    <t>RUA JOAO RODRIGUES GONÇALVES,  93 – VALE JATOBÁ - BH</t>
+  </si>
+  <si>
+    <t>ROBERTO DE SOUZA MARTINS - RUA JOAO PINHEIRO, 122, BAIRRO BEIJA FLOR - BH</t>
+  </si>
+  <si>
+    <t>RUA JOAO PINHEIRO, 122, BAIRRO BEIJA FLOR - BH</t>
+  </si>
+  <si>
+    <t>WALTER RIBEIRO DOS SANTOS - RUA PLATÃO, 137, BAIRRO NAZARÉ - BH</t>
+  </si>
+  <si>
+    <t>RUA PLATÃO, 137, BAIRRO NAZARÉ - BH</t>
+  </si>
+  <si>
+    <t>WELSON SILVA PECANHA - RUA PAULO BRANDÃO, Nº 350 - BAIRRO SANTA EFIGÊNIA - BH</t>
+  </si>
+  <si>
+    <t>RUA PAULO BRANDÃO,  350 - BAIRRO SANTA EFIGÊNIA - BH</t>
+  </si>
+  <si>
+    <t>WILLIAM GLAYSON RODRIGUES - AVELINO GIAROLA N° 705; CÉU AZUL  - BH</t>
+  </si>
+  <si>
+    <t>AVELINO GIAROLA N° 705; CÉU AZUL  - BH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVANDRO REIS DA CUNHA  - RUA ELIAS SALOMÉ, Nº 11, FERNÃO DIAS - BH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA ELIAS SALOMÉ,  11, FERNÃO DIAS - BH </t>
+  </si>
+  <si>
+    <t>ABRAAO CONCEICAO SILVA - R. RIO COMPRIDO, 316 - JARDIM CALIFORNIA - CONTAGEM</t>
+  </si>
+  <si>
+    <t>R. RIO COMPRIDO, 316 - JARDIM CALIFORNIA - CONTAGEM</t>
+  </si>
+  <si>
+    <t>FABIO SOARES - RUA ANTONIO BARBOSA DE OLIVEIRA FILHO Nº 95 BAIRRO EUROPA  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO BARBOSA DE OLIVEIRA FILHO  95 BAIRRO EUROPA  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>LAERTE DE OLIVEIRA RUELA JUNIOR - RUA QUATRO, Nº272 - BAIRRO TROPICAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA QUATRO, 272 - BAIRRO TROPICAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>MARCIO MARINHO DA SILVA - RUA MONSENHOR MESIAS, 921, FLAMENGO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA MONSENHOR MESIAS, 921, FLAMENGO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>ODAIR ALVES GONÇALVES - RUA BECO MACHADO DE ASSIS, Nº 78 - BAIRRO PARQUE SÃO JOÃO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA BECO MACHADO DE ASSIS,  78 - BAIRRO PARQUE SÃO JOÃO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>ODIVAN RAMOS PEDRO - RUA SÃO DIMAS, 197 - BAIRRO INDUSTRIAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA SÃO DIMAS, 197 - BAIRRO INDUSTRIAL - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RAFAEL DINIZ COELHO - RUA JOSE FRANCISCO CRUZ, Nº 38- BAIRRO FUNCIONÁRIOS  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA JOSE FRANCISCO CRUZ,  38- BAIRRO FUNCIONÁRIOS  - CONTAGEM</t>
+  </si>
+  <si>
+    <t>SERGIO ALVES  - RUA CAÇAPAVA, Nº182 - BAIRRO RIACHO DAS PEDRAS - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA CAÇAPAVA, 182 - BAIRRO RIACHO DAS PEDRAS - CONTAGEM</t>
+  </si>
+  <si>
+    <t>TIAGO RODRIGUES DOS SANTOS - BECO SÃO LUIZ, Nº413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>BECO SÃO LUIZ, 413 - BAIRRO NOVA CONTAGEM - CONTAGEM</t>
+  </si>
+  <si>
+    <t>WALLACE ADRIANO COSTA - RUA JOAQUIN CAMARGO, Nº XXX - BAIRRO CENTRO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIN CAMARGO,  XXX - BAIRRO CENTRO - CONTAGEM</t>
+  </si>
+  <si>
+    <t>WELINTON COSTA - RUA JOAQUIM JOSÉ, Nº1685, BAIRRO PONTE GRANDE - CONTAGEM</t>
+  </si>
+  <si>
+    <t>RUA JOAQUIM JOSÉ, 1685, BAIRRO PONTE GRANDE - CONTAGEM</t>
+  </si>
+  <si>
+    <t>DANIEL BRITO ALVES BATISTA - RUA DAS JABUTICABEIRAS, Nº210 - BAIRRO NOVO RETIRO  - ESMERALDAS</t>
+  </si>
+  <si>
+    <t>RUA DAS JABUTICABEIRAS, 210 - BAIRRO NOVO RETIRO  - ESMERALDAS</t>
+  </si>
+  <si>
+    <t>ALEX AUGUSTO DA SILVA GONCALVES QUIRINO - RUA SEBASTIÃO ANTÔNIO, Nº839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANTÔNIO, 839 - BAIRRO JARDIM DAS ROSAS  - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>ROSENEY PORFIRIO DA SILVA - RUA BOTAFOGO, 249.DURVAL DE BARROS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA BOTAFOGO, 249.DURVAL DE BARROS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>VALDEVINO GOMES DA SILVA - RUA CACHOEIRO, 344 - JARDIM DAS ROSAS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t>RUA CACHOEIRO, 344 - JARDIM DAS ROSAS - IBIRITÉ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODILIO ROCHA DE SOUZA - RUA BOLÍVIA, Nº 67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA BOLÍVIA,  67, BAIRRO PRIMAVERA  - IBIRITÉ </t>
+  </si>
+  <si>
+    <t>JOSCK JUAN SANTOS NASCIMENTO - RUA JOSE MARIA DE MENEZES, Nº20 - BAIRRO BOTAFOGO - JUSTINOPOLIS</t>
+  </si>
+  <si>
+    <t>RUA JOSE MARIA DE MENEZES, 20 - BAIRRO BOTAFOGO - JUSTINOPOLIS</t>
+  </si>
+  <si>
+    <t>ANDRE VINICIUS SOARES - AV. SÃO SEBASTIÃO, Nº1133 - BAIRRO CAMPINHO - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>AV. SÃO SEBASTIÃO, 1133 - BAIRRO CAMPINHO - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>DECIO EVANGELISTA RODRIGUES - RUA FELÍCIANO CASTILHO, 25 - CONJUNTO HABITACIONAL OUVIDIO GUERRA - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>RUA FELÍCIANO CASTILHO, 25 - CONJUNTO HABITACIONAL OUVIDIO GUERRA - LAGOA SANTA</t>
+  </si>
+  <si>
+    <t>AFONSO ELZEPER MOREIRA LEITE - R. FLORIANÓPOLIS, 275 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. FLORIANÓPOLIS, 275 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>ALDAIR ANTONIO DE LIMA  - RUA JOSÉ ANTÔNIO DE JESUS, Nº95 - SÃO SEBASTIÃO   - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ ANTÔNIO DE JESUS, 95 - SÃO SEBASTIÃO   - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>ANSELMO DA SILVA FERREIRA - R. TRÊS MARIAS, 76 - SÃO CRISTOVAO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. TRÊS MARIAS, 76 - SÃO CRISTOVAO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>BRUNO GUILHERME CARVALHO DE OLIVEIRA MARTINS - R. BOLÍVIA, 321 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>R. BOLÍVIA, 321 - BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>DIEGO ELIAS PEREIRA  - RUA FLORIANOPOLIS, Nº 504 - BAIRRO BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA FLORIANOPOLIS,  504 - BAIRRO BOM JESUS - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>JEFFERSON RICARDO FERREIRA - RUA FRANCISCO SANTOS, N11°, BAIRRO FLORESTA - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO SANTOS, N11°, BAIRRO FLORESTA - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>LYER SIRONS B CORRÊA - RUA CARIJOS, Nº39 - BAIRRO SÃO SEBASTIÃO  - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA CARIJOS, 39 - BAIRRO SÃO SEBASTIÃO  - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>WILLIAN MACHADO NETO - RUA ANTÔNIO INÁCIO Nº 104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>RUA ANTÔNIO INÁCIO  104 - BAIRRO SÃO SEBASTIÃO - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>DOUGLAS LUCIO RAMOS - RUA MARIA DA CONCEIÇÃO FERNANDES Nº 133 BAIRRO LAGOA SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA MARIA DA CONCEIÇÃO FERNANDES  133 BAIRRO LAGOA SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>FELIPE VICTOR C AMERICO - RUA FARMACEUTICO JOSÉ MARTINS Nº 285 BAIRRO FELIPE CLAUDIO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA FARMACEUTICO JOSÉ MARTINS  285 BAIRRO FELIPE CLAUDIO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>FLAVIO DA SILVA FERNANDES - RUA MACHADO VIEIRA 98 - CENTRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA MACHADO VIEIRA 98 - CENTRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPEZ - R. JOSÉ C MAIA, 245 - MOCAMBEIRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>R. JOSÉ C MAIA, 245 - MOCAMBEIRO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>HUGO LEONARDO SILVA  - RUA MAGNO CLARET, Nº587 - BAIRRO LAGOA DE SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA MAGNO CLARET, 587 - BAIRRO LAGOA DE SANTO ANTONIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>JULIAN CESAR RESENDE LEAL - AVENIDA PERGENTINO SOUZA SANTOS  771 - TEOTÔNIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>AVENIDA PERGENTINO SOUZA SANTOS  771 - TEOTÔNIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>MARCIO RODRIGUES GONCALVES - JOÃO MIGUEL RIBEIRO, 115 - SAGUAREMA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>JOÃO MIGUEL RIBEIRO, 115 - SAGUAREMA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>MARCIO VIEIRA MACENA - RUA JOSÉ FERREIRA DINIZ, 187, BAIRRO TEOTONIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA JOSÉ FERREIRA DINIZ, 187, BAIRRO TEOTONIO BATISTA - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>MARCOS HENRIQUE DUARTE COSTA - RUA ELIAS MARQUES, Nº433 - BAIRRO TEOTÓNIO BATISTA DE FREITAS - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA ELIAS MARQUES, 433 - BAIRRO TEOTÓNIO BATISTA DE FREITAS - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RAFAEL WASHINGTON VIEIRA - RUA SEBASTIÃO ANDRADE, Nº130 - BAIRRO FELIPE CLAUDIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA SEBASTIÃO ANDRADE, 130 - BAIRRO FELIPE CLAUDIO  - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>ROGER LUCAS DE FREITAS SANTOS - RUA LUIS PIRES 33 - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA LUIS PIRES 33 - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>TIAGO GOMES - RUA LUCIO CARDOSO TEIXEIRA Nº 277 BLOCO A CONJUNTO AMELIA TORRES BAIRRO TRIANGULO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>RUA LUCIO CARDOSO TEIXEIRA  277 BLOCO A CONJUNTO AMELIA TORRES BAIRRO TRIANGULO - PEDRO LEOPOLDO</t>
+  </si>
+  <si>
+    <t>MANOELITO FAGUNDES DA SILVA - RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
+  </si>
+  <si>
+    <t>RUA RICARDINO N110, BAIRRO SANTO ANTONIO DE ROÇAS GRANDE - Sabará</t>
+  </si>
+  <si>
+    <t>FABRICIO AUGUSTO CARDOZO - RUA DOM CABRAL N°92, BAIRRO PADRE CHIQUINHO - SÁBARA</t>
+  </si>
+  <si>
+    <t>RUA DOM CABRAL N°92, BAIRRO PADRE CHIQUINHO - SÁBARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RENATO P. GONÇALVES - RUA ALBERT CHARLEY, Nº1773 - BAIRRO PACIÊNCIA  - SABARÁ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA ALBERT CHARLEY, 1773 - BAIRRO PACIÊNCIA  - SABARÁ </t>
+  </si>
+  <si>
+    <t>ADRIANO RODRIGUES DA SILVA - R. DO MÉXICO, 421 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. DO MÉXICO, 421 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>ANTONIO LUIZ DA SILVA - AV. RODRIGUES ALVES, 322 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AV. RODRIGUES ALVES, 322 - INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>CARLOS ALBERTO FRANCISCO - R. PRES. JOSÉ FELÍCIANO, 30A - QUARENTA E DOIS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>R. PRES. JOSÉ FELÍCIANO, 30A - QUARENTA E DOIS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>DENIS FERNANDO MARCO - RUA PARAGUAI Nº100 BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA PARAGUAI 100 BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>DIRCEU CLEBER BORGES  - RUA AUTO DO TANQUE, 805 - NOSSA SENHORA DO CARMO - Santa Luzia</t>
+  </si>
+  <si>
+    <t>RUA AUTO DO TANQUE, 805 - NOSSA SENHORA DO CARMO - Santa Luzia</t>
+  </si>
+  <si>
+    <t>EDVALDO MACIEL JARDIM - RUA GUATEMALA Nº 93 BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA GUATEMALA  93 BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>FLAVIANO ALVES MUNIZ  - TRAVESSA A - BONANZA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>TRAVESSA A - BONANZA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>GUILHERME LOPES DE ALMEIDA - RUA PARAIBUNA, 82, BAIRRO SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA PARAIBUNA, 82, BAIRRO SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>HUDSON DIAS RAMOS  - AVENIDA ETELVINO SOUZA LIMA, Nº 2763 - PALMITAL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AVENIDA ETELVINO SOUZA LIMA,  2763 - PALMITAL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>JOSÉ LUCAS DE JESUS - RUA ENGENHEIRO FELIPE GABRICH, Nº 790 - BAIRRO SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA ENGENHEIRO FELIPE GABRICH,  790 - BAIRRO SANTA MATILDE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>KLEBER DE AVILA TORRES - RUA MANOEL ALVES BRAN, Nº 134, BAIRRO BELVEDERE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA MANOEL ALVES BRAN,  134, BAIRRO BELVEDERE - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>MARCELO GUILHERME  - RUA JOÃO JOSÉ PEDRO, Nº135 - BAIRRO CORREGO FRIO  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA JOÃO JOSÉ PEDRO, 135 - BAIRRO CORREGO FRIO  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>PAULO AFONSO FONSECA - RUA MANAUS, 39 - BAIRRO PADRE MIGUEL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA MANAUS, 39 - BAIRRO PADRE MIGUEL - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RICARDO ANTONIO SIQUEIRA - RUA DINAMARCA, 137 - BARONESA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA DINAMARCA, 137 - BARONESA - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RONALDO DA SILVA - AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>AV YOLANDA TEIXEIRA DA COSTA, 1460 - PALMITAL B  - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>THIAGO GOMES AVELINO - RUA ADELINO DE ANDRADE, 149, BAIRRO ADEODATO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA ADELINO DE ANDRADE, 149, BAIRRO ADEODATO - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>VAGNER DE MELO - RUA JABOTICATUBAS, Nº 191 - BAIRRO: RIO DAS VELHAS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t>RUA JABOTICATUBAS,  191 - BAIRRO: RIO DAS VELHAS - SANTA LUZIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WARLEN BARBOSA SANTOS - RUA CANADA, Nº660 - BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUA CANADA, 660 - BAIRRO INDUSTRIAL AMERICANO - SANTA LUZIA </t>
+  </si>
+  <si>
+    <t>LUCINEI PAULO DA SILVA - RUA ANTONIO MOURÃO GUIMARÃES, Nº 693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>RUA ANTONIO MOURÃO GUIMARÃES,  693 - BAIRRO ICAL - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>MARCO TULIO BATISTA DOS ANJOS - AV. NICOLAU ELIAS SIMÃO, Nº916 - BAIRRO DOM PEDRO I  - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>AV. NICOLAU ELIAS SIMÃO, 916 - BAIRRO DOM PEDRO I  - SÃO JOSÉ DA LAPA</t>
+  </si>
+  <si>
+    <t>ADAIR GOMES DOS SANTOS  - R. CEARÁ, 704 - SERRA AZUL - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. CEARÁ, 704 - SERRA AZUL - VESPASIANO</t>
+  </si>
+  <si>
+    <t>ALEXANDRE DE CAMPOS SOUZA - RUA S, Nº256 - BAIRRO CAIERAS (RUA COM SAIDA, PRÓXIMO CENTRO DE EVENTOS RISOLETA NEVES) - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA S, 256 - BAIRRO CAIERAS (RUA COM SAIDA, PRÓXIMO CENTRO DE EVENTOS RISOLETA NEVES) - VESPASIANO</t>
+  </si>
+  <si>
+    <t>CARLOS ROBERTO DA SILVA - AV. PRINCIPAL, Nº 1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AV. PRINCIPAL,  1100 - CONDOMÍNIO DOS MILITARES, BAIRRO SERRA DOURADA  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>CARLOS ROMILDO DE AZEVEDO - RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA JOÃO TEIXEIRA, 40 JARDIM ALTEROSA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>DENILSON DAMASIO FLORENTINO - RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA VEREADOR JOAQUIM FONSECA FILHO, 60 - NAZIA 1  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>EDUARDO HENRIQUE DOS SANTOS MORAIS - RUA GERALDO FIRMINO DINIZ, N°93 - VALE FORMOSO  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA GERALDO FIRMINO DINIZ, N°93 - VALE FORMOSO  - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO COELHO SILVA - RUA RIO DE JANEIRO, 1528, BAIRRO CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, 1528, BAIRRO CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO PATROCINIO DE JESUS  - RUA FIDELIS PROCÓPIO BRAGA, Nº91 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA FIDELIS PROCÓPIO BRAGA, 91 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FERNANDO SILVA DOS SANTOS - RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA DAS SUCULENTA, 154 - GAVEA 1 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>FLANKLIN SILVA BARROS - RUA EMÍLIO VASCONCELOS, Nº 219 - BAIRRO CENTRO - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA EMÍLIO VASCONCELOS,  219 - BAIRRO CENTRO - VESPASIANO</t>
+  </si>
+  <si>
+    <t>GILBERTO SANTOS DA SILVA - RUA 35, N°249 - BAIRRO JEQUITIBÁ - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA 35, N°249 - BAIRRO JEQUITIBÁ - VESPASIANO</t>
+  </si>
+  <si>
+    <t>HUGO AUGUSTO DOS SANTOS - RUA PARAÍBA, Nº 544 - CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA PARAÍBA,  544 - CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>ITALO MATHEUS B.  - RUA SANTO ANTONIO, Nº260,  RIBEIRÃO DA MATA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA SANTO ANTONIO, 260,  RIBEIRÃO DA MATA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>JASSON FERREIRA CAMPOS - RUA JORGE DIAS DE OLIVA, Nº870 - BAIRRO CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA JORGE DIAS DE OLIVA, 870 - BAIRRO CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>JOAO VITOR TAVORA SILVA - RUA RIO DE JANEIRO, N°1528 - BAIRRO CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA RIO DE JANEIRO, N°1528 - BAIRRO CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>JOSE RAMON ISERNIA RODRIGUEZ - RUA PAULO FERREIRA DA COSTA,  Nº1013 - BAIRRO VISTA ALEGRE - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA PAULO FERREIRA DA COSTA,  1013 - BAIRRO VISTA ALEGRE - VESPASIANO</t>
+  </si>
+  <si>
+    <t>LEONARDO BATISTA - R. PERNAMBUCO, 84A - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>R. PERNAMBUCO, 84A - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>LEONARDO ALVES  - AV. ADÉLIA ISSA, Nº 1264 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AV. ADÉLIA ISSA,  1264 - CAIEIRAS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>MARCO AURELIO VIEIRA - RUA CEARÁ Nº 1453 BAIRRO CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA CEARÁ  1453 BAIRRO CÉLVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>PAULO HENRIQUE RODRIGUES FERREIRA - AV. CARLOS MURTA FILHO N°776 - BAIRRO GAVEA 2 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AV. CARLOS MURTA FILHO N°776 - BAIRRO GAVEA 2 - VESPASIANO</t>
+  </si>
+  <si>
+    <t>SEBASTIAO NERES PINTO JUNIOR - ALAMEDA SO REI, 125 - DOS IPÊS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>ALAMEDA SO REI, 125 - DOS IPÊS - VESPASIANO</t>
+  </si>
+  <si>
+    <t>SILVIO HUBINER DA SILVA - RUA BAENPEDI, 380 - BAIRRO SANTA CLARA. - VESPASIANO</t>
+  </si>
+  <si>
+    <t>RUA BAENPEDI, 380 - BAIRRO SANTA CLARA. - VESPASIANO</t>
+  </si>
+  <si>
+    <t>VANDERSON DOS SANTOS ANDRE - AV. THALES CHAGAS, 1587 - CELVIA - VESPASIANO</t>
+  </si>
+  <si>
+    <t>AV. THALES CHAGAS, 1587 - CELVIA - VESPASIANO</t>
   </si>
 </sst>
 </file>
@@ -935,21 +1547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -966,12 +1578,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -980,9 +1592,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -994,12 +1606,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1008,17 +1620,45 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1029,20 +1669,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -1051,12 +1691,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1065,12 +1705,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1079,17 +1719,1389 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>126</v>
+      </c>
+      <c r="B55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>131</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>134</v>
+      </c>
+      <c r="B59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>138</v>
+      </c>
+      <c r="B61" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>144</v>
+      </c>
+      <c r="B64" t="s">
+        <v>145</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>146</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" t="s">
+        <v>155</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" t="s">
+        <v>159</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>164</v>
+      </c>
+      <c r="B74" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" t="s">
+        <v>169</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" t="s">
+        <v>173</v>
+      </c>
+      <c r="C78">
+        <v>4</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>174</v>
+      </c>
+      <c r="B79" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>176</v>
+      </c>
+      <c r="B80" t="s">
+        <v>177</v>
+      </c>
+      <c r="C80">
+        <v>4</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81">
+        <v>4</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" t="s">
+        <v>187</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>188</v>
+      </c>
+      <c r="B86" t="s">
+        <v>189</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>190</v>
+      </c>
+      <c r="B87" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>198</v>
+      </c>
+      <c r="B91" t="s">
+        <v>199</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>200</v>
+      </c>
+      <c r="B92" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>202</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>204</v>
+      </c>
+      <c r="B94" t="s">
+        <v>205</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+      <c r="B95" t="s">
+        <v>207</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>208</v>
+      </c>
+      <c r="B96" t="s">
+        <v>209</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>210</v>
+      </c>
+      <c r="B97" t="s">
+        <v>211</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>212</v>
+      </c>
+      <c r="B98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" t="s">
+        <v>215</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>216</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>218</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64873DD9-E15D-4C14-AD75-24E1915C0DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8454FA5-F892-4B44-B1AE-D8708997D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="222">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -1547,21 +1547,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -1659,6 +1659,1434 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>109</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B62" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>128</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>146</v>
+      </c>
+      <c r="B72" t="s">
+        <v>147</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" t="s">
+        <v>149</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>152</v>
+      </c>
+      <c r="B75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>158</v>
+      </c>
+      <c r="B78" t="s">
+        <v>159</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
+        <v>161</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>162</v>
+      </c>
+      <c r="B80" t="s">
+        <v>163</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>164</v>
+      </c>
+      <c r="B81" t="s">
+        <v>165</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" t="s">
+        <v>171</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>172</v>
+      </c>
+      <c r="B85" t="s">
+        <v>173</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>174</v>
+      </c>
+      <c r="B86" t="s">
+        <v>175</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>181</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>182</v>
+      </c>
+      <c r="B90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+      <c r="D90" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>184</v>
+      </c>
+      <c r="B91" t="s">
+        <v>185</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>186</v>
+      </c>
+      <c r="B92" t="s">
+        <v>187</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+      <c r="B93" t="s">
+        <v>189</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+      <c r="D93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>190</v>
+      </c>
+      <c r="B94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" t="s">
+        <v>193</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+      <c r="D95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>194</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="D96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>196</v>
+      </c>
+      <c r="B97" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>200</v>
+      </c>
+      <c r="B99" t="s">
+        <v>201</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>202</v>
+      </c>
+      <c r="B100" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B101" t="s">
+        <v>205</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>208</v>
+      </c>
+      <c r="B103" t="s">
+        <v>209</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+      <c r="D103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>210</v>
+      </c>
+      <c r="B104" t="s">
+        <v>211</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+      <c r="D104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>212</v>
+      </c>
+      <c r="B105" t="s">
+        <v>213</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>214</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+      <c r="D106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>216</v>
+      </c>
+      <c r="B107" t="s">
+        <v>217</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+      <c r="D107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>218</v>
+      </c>
+      <c r="B108" t="s">
+        <v>219</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+      <c r="D108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" t="s">
+        <v>221</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
+      </c>
+      <c r="D109" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1671,13 +3099,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection sqref="A1:XFD102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1691,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +3133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1719,7 +3147,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1733,7 +3161,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1747,7 +3175,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1761,7 +3189,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1775,7 +3203,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1789,7 +3217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1803,7 +3231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1817,7 +3245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -1831,7 +3259,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1845,7 +3273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +3287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -1873,7 +3301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1887,7 +3315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -1901,7 +3329,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1915,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -1929,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -1943,7 +3371,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1957,7 +3385,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -1971,7 +3399,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1985,7 +3413,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -1999,7 +3427,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>64</v>
       </c>
@@ -2013,7 +3441,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2027,7 +3455,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -2041,7 +3469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>70</v>
       </c>
@@ -2055,7 +3483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>72</v>
       </c>
@@ -2069,7 +3497,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -2083,7 +3511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -2097,7 +3525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -2111,7 +3539,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -2125,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>82</v>
       </c>
@@ -2139,7 +3567,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -2153,7 +3581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>86</v>
       </c>
@@ -2167,7 +3595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>88</v>
       </c>
@@ -2181,7 +3609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>90</v>
       </c>
@@ -2195,7 +3623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -2209,7 +3637,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -2223,7 +3651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -2237,7 +3665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -2251,7 +3679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>100</v>
       </c>
@@ -2265,7 +3693,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>102</v>
       </c>
@@ -2279,7 +3707,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>104</v>
       </c>
@@ -2293,7 +3721,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>106</v>
       </c>
@@ -2307,7 +3735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>108</v>
       </c>
@@ -2321,7 +3749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>110</v>
       </c>
@@ -2335,7 +3763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>112</v>
       </c>
@@ -2349,7 +3777,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -2363,7 +3791,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>116</v>
       </c>
@@ -2377,7 +3805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>118</v>
       </c>
@@ -2391,7 +3819,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>120</v>
       </c>
@@ -2405,7 +3833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>122</v>
       </c>
@@ -2419,7 +3847,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>124</v>
       </c>
@@ -2433,7 +3861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>126</v>
       </c>
@@ -2447,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>128</v>
       </c>
@@ -2461,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>130</v>
       </c>
@@ -2475,7 +3903,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -2489,7 +3917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>134</v>
       </c>
@@ -2503,7 +3931,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -2517,7 +3945,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -2531,7 +3959,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>140</v>
       </c>
@@ -2545,7 +3973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>142</v>
       </c>
@@ -2559,7 +3987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>144</v>
       </c>
@@ -2573,7 +4001,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>146</v>
       </c>
@@ -2587,7 +4015,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>148</v>
       </c>
@@ -2601,7 +4029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -2615,7 +4043,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>152</v>
       </c>
@@ -2629,7 +4057,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>154</v>
       </c>
@@ -2643,7 +4071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>156</v>
       </c>
@@ -2657,7 +4085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>158</v>
       </c>
@@ -2671,7 +4099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>160</v>
       </c>
@@ -2685,7 +4113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>162</v>
       </c>
@@ -2699,7 +4127,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>164</v>
       </c>
@@ -2713,7 +4141,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -2727,7 +4155,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>168</v>
       </c>
@@ -2741,7 +4169,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>170</v>
       </c>
@@ -2755,7 +4183,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -2769,7 +4197,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -2783,7 +4211,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>176</v>
       </c>
@@ -2797,7 +4225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>178</v>
       </c>
@@ -2811,7 +4239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>180</v>
       </c>
@@ -2825,7 +4253,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>182</v>
       </c>
@@ -2839,7 +4267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>184</v>
       </c>
@@ -2853,7 +4281,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>186</v>
       </c>
@@ -2867,7 +4295,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -2881,7 +4309,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>190</v>
       </c>
@@ -2895,7 +4323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>192</v>
       </c>
@@ -2909,7 +4337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>194</v>
       </c>
@@ -2923,7 +4351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>196</v>
       </c>
@@ -2937,7 +4365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>198</v>
       </c>
@@ -2951,7 +4379,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>200</v>
       </c>
@@ -2965,7 +4393,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>202</v>
       </c>
@@ -2979,7 +4407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>204</v>
       </c>
@@ -2993,7 +4421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -3007,7 +4435,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>208</v>
       </c>
@@ -3021,7 +4449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -3035,7 +4463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>212</v>
       </c>
@@ -3049,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>214</v>
       </c>
@@ -3063,7 +4491,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>216</v>
       </c>
@@ -3077,7 +4505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>218</v>
       </c>
@@ -3091,7 +4519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>220</v>
       </c>

--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6AC05D-F132-4384-8F81-B0D186D0CFDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BA24E2-C660-4D5F-8E12-E3B1AC13AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -1538,20 +1538,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1617,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>177</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>173</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1683,7 +1683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -1692,6 +1692,1062 @@
       </c>
       <c r="C13">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>105</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>203</v>
+      </c>
+      <c r="B42" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>187</v>
+      </c>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>218</v>
+      </c>
+      <c r="B49" t="s">
+        <v>217</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>191</v>
+      </c>
+      <c r="B55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" t="s">
+        <v>124</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>195</v>
+      </c>
+      <c r="B69" t="s">
+        <v>196</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" t="s">
+        <v>136</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>34</v>
+      </c>
+      <c r="B71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" t="s">
+        <v>40</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" t="s">
+        <v>152</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>153</v>
+      </c>
+      <c r="B85" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>209</v>
+      </c>
+      <c r="B89" t="s">
+        <v>210</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>44</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>46</v>
+      </c>
+      <c r="B91" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>63</v>
+      </c>
+      <c r="B92" t="s">
+        <v>64</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>156</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>60</v>
+      </c>
+      <c r="B94" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" t="s">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>157</v>
+      </c>
+      <c r="B96" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" t="s">
+        <v>162</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>199</v>
+      </c>
+      <c r="B103" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>211</v>
+      </c>
+      <c r="B104" t="s">
+        <v>212</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>168</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>54</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>169</v>
+      </c>
+      <c r="B108" t="s">
+        <v>170</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>215</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1701,1077 +2757,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:XFD96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="120.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>81</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="B18" t="s">
-        <v>92</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" t="s">
-        <v>96</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>106</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>187</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>111</v>
-      </c>
-      <c r="B37" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>113</v>
-      </c>
-      <c r="B38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>115</v>
-      </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>117</v>
-      </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B42" t="s">
-        <v>192</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>121</v>
-      </c>
-      <c r="B46" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>131</v>
-      </c>
-      <c r="B52" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-      <c r="B54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>135</v>
-      </c>
-      <c r="B57" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B59" t="s">
-        <v>138</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>36</v>
-      </c>
-      <c r="B60" t="s">
-        <v>37</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>58</v>
-      </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>141</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" t="s">
-        <v>146</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" t="s">
-        <v>148</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>149</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>151</v>
-      </c>
-      <c r="B71" t="s">
-        <v>152</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" t="s">
-        <v>154</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" t="s">
-        <v>208</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>197</v>
-      </c>
-      <c r="B74" t="s">
-        <v>198</v>
-      </c>
-      <c r="C74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>175</v>
-      </c>
-      <c r="B75" t="s">
-        <v>176</v>
-      </c>
-      <c r="C75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>209</v>
-      </c>
-      <c r="B76" t="s">
-        <v>210</v>
-      </c>
-      <c r="C76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>63</v>
-      </c>
-      <c r="B79" t="s">
-        <v>64</v>
-      </c>
-      <c r="C79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" t="s">
-        <v>156</v>
-      </c>
-      <c r="C80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" t="s">
-        <v>48</v>
-      </c>
-      <c r="C81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>49</v>
-      </c>
-      <c r="B82" t="s">
-        <v>50</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>157</v>
-      </c>
-      <c r="B83" t="s">
-        <v>158</v>
-      </c>
-      <c r="C83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>159</v>
-      </c>
-      <c r="B84" t="s">
-        <v>160</v>
-      </c>
-      <c r="C84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>61</v>
-      </c>
-      <c r="B85" t="s">
-        <v>51</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>62</v>
-      </c>
-      <c r="B86" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" t="s">
-        <v>162</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" t="s">
-        <v>164</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>165</v>
-      </c>
-      <c r="B89" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>199</v>
-      </c>
-      <c r="B90" t="s">
-        <v>200</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>211</v>
-      </c>
-      <c r="B91" t="s">
-        <v>212</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>167</v>
-      </c>
-      <c r="B92" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>213</v>
-      </c>
-      <c r="B93" t="s">
-        <v>214</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" t="s">
-        <v>54</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>169</v>
-      </c>
-      <c r="B95" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>215</v>
-      </c>
-      <c r="B96" t="s">
-        <v>216</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Enderecos_Colaboradores.xlsx
+++ b/Enderecos_Colaboradores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pegon\Documents\UiPath\LocalizadorMyMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\UiPath\LocalizadorMyMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BA24E2-C660-4D5F-8E12-E3B1AC13AB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2B6685-CA2A-411F-BEEB-473C979D581D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1509B335-AD59-4068-8991-AE664AB9D0FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Enderecos_Colaboradores" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="221">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -678,6 +678,12 @@
   </si>
   <si>
     <t>JEFFERSON RICARDO FERREIRA - RUA FRANCISCO SANTOS, 11, FLORESTA - MATOZINHOS</t>
+  </si>
+  <si>
+    <t>PAULO PEDRO JOSÉ MANÉ - RUA ESQUISITOPATAS, 283847 - BUMERANGE - BH</t>
+  </si>
+  <si>
+    <t>RUA ESQUISITOPATAS, 283847 - BUMERANGE - BH</t>
   </si>
 </sst>
 </file>
@@ -1538,20 +1544,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A42E3-8D7F-46A7-8DC4-00261C0497E0}">
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="92.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1562,1192 +1568,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>90</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" t="s">
-        <v>180</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>181</v>
-      </c>
-      <c r="B18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" t="s">
-        <v>172</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>183</v>
-      </c>
-      <c r="B25" t="s">
-        <v>184</v>
-      </c>
-      <c r="C25">
         <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" t="s">
-        <v>98</v>
-      </c>
-      <c r="C34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="s">
-        <v>104</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" t="s">
-        <v>22</v>
-      </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>105</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>107</v>
-      </c>
-      <c r="B41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>203</v>
-      </c>
-      <c r="B42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>185</v>
-      </c>
-      <c r="B44" t="s">
-        <v>186</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>187</v>
-      </c>
-      <c r="B46" t="s">
-        <v>188</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" t="s">
-        <v>110</v>
-      </c>
-      <c r="C48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>111</v>
-      </c>
-      <c r="B50" t="s">
-        <v>112</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>113</v>
-      </c>
-      <c r="B51" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>115</v>
-      </c>
-      <c r="B52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>117</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>119</v>
-      </c>
-      <c r="B56" t="s">
-        <v>120</v>
-      </c>
-      <c r="C56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>125</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-      <c r="C61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>32</v>
-      </c>
-      <c r="B62" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-      <c r="C63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>131</v>
-      </c>
-      <c r="B65" t="s">
-        <v>132</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>133</v>
-      </c>
-      <c r="B66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>193</v>
-      </c>
-      <c r="B67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>195</v>
-      </c>
-      <c r="B69" t="s">
-        <v>196</v>
-      </c>
-      <c r="C69">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>34</v>
-      </c>
-      <c r="B71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C71">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>137</v>
-      </c>
-      <c r="B72" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" t="s">
-        <v>140</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>58</v>
-      </c>
-      <c r="B75" t="s">
-        <v>38</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>141</v>
-      </c>
-      <c r="B76" t="s">
-        <v>142</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>143</v>
-      </c>
-      <c r="B77" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>39</v>
-      </c>
-      <c r="B80" t="s">
-        <v>40</v>
-      </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>41</v>
-      </c>
-      <c r="B81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C81">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>149</v>
-      </c>
-      <c r="B82" t="s">
-        <v>150</v>
-      </c>
-      <c r="C82">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>59</v>
-      </c>
-      <c r="B83" t="s">
-        <v>43</v>
-      </c>
-      <c r="C83">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>151</v>
-      </c>
-      <c r="B84" t="s">
-        <v>152</v>
-      </c>
-      <c r="C84">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>153</v>
-      </c>
-      <c r="B85" t="s">
-        <v>154</v>
-      </c>
-      <c r="C85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>207</v>
-      </c>
-      <c r="B86" t="s">
-        <v>208</v>
-      </c>
-      <c r="C86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>197</v>
-      </c>
-      <c r="B87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" t="s">
-        <v>176</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>209</v>
-      </c>
-      <c r="B89" t="s">
-        <v>210</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>44</v>
-      </c>
-      <c r="B90" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" t="s">
-        <v>47</v>
-      </c>
-      <c r="C91">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>63</v>
-      </c>
-      <c r="B92" t="s">
-        <v>64</v>
-      </c>
-      <c r="C92">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>155</v>
-      </c>
-      <c r="B93" t="s">
-        <v>156</v>
-      </c>
-      <c r="C93">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>60</v>
-      </c>
-      <c r="B94" t="s">
-        <v>48</v>
-      </c>
-      <c r="C94">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>49</v>
-      </c>
-      <c r="B95" t="s">
-        <v>50</v>
-      </c>
-      <c r="C95">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>157</v>
-      </c>
-      <c r="B96" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>159</v>
-      </c>
-      <c r="B97" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>61</v>
-      </c>
-      <c r="B98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C98">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>62</v>
-      </c>
-      <c r="B99" t="s">
-        <v>52</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>161</v>
-      </c>
-      <c r="B100" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>163</v>
-      </c>
-      <c r="B101" t="s">
-        <v>164</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>165</v>
-      </c>
-      <c r="B102" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>199</v>
-      </c>
-      <c r="B103" t="s">
-        <v>200</v>
-      </c>
-      <c r="C103">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>211</v>
-      </c>
-      <c r="B104" t="s">
-        <v>212</v>
-      </c>
-      <c r="C104">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>213</v>
-      </c>
-      <c r="B106" t="s">
-        <v>214</v>
-      </c>
-      <c r="C106">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>53</v>
-      </c>
-      <c r="B107" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>169</v>
-      </c>
-      <c r="B108" t="s">
-        <v>170</v>
-      </c>
-      <c r="C108">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>215</v>
-      </c>
-      <c r="B109" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2757,20 +1630,1209 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430282E8-3F98-4B48-931E-E4CEE901F124}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD96"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="120.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="120.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" t="s">
+        <v>184</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>97</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>203</v>
+      </c>
+      <c r="B41" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>187</v>
+      </c>
+      <c r="B45" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s">
+        <v>190</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" t="s">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" t="s">
+        <v>132</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>133</v>
+      </c>
+      <c r="B65" t="s">
+        <v>134</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>193</v>
+      </c>
+      <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" t="s">
+        <v>136</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" t="s">
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" t="s">
+        <v>40</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>152</v>
+      </c>
+      <c r="C83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>197</v>
+      </c>
+      <c r="B86" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>209</v>
+      </c>
+      <c r="B88" t="s">
+        <v>210</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>44</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>60</v>
+      </c>
+      <c r="B93" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>49</v>
+      </c>
+      <c r="B94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>158</v>
+      </c>
+      <c r="C95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>159</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>52</v>
+      </c>
+      <c r="C98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" t="s">
+        <v>162</v>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" t="s">
+        <v>164</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" t="s">
+        <v>166</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>199</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="C102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>211</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>167</v>
+      </c>
+      <c r="B104" t="s">
+        <v>168</v>
+      </c>
+      <c r="C104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>213</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B106" t="s">
+        <v>54</v>
+      </c>
+      <c r="C106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>170</v>
+      </c>
+      <c r="C107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>